--- a/tables/videoblogs.xlsx
+++ b/tables/videoblogs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3218A06B-63C4-B94A-8B1E-6EF173BDB44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFB3CFD-1A40-4944-B424-2836589D6607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25460" windowHeight="14160" xr2:uid="{F4DF8C39-CF9D-A146-A581-83BC876F97BD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>blog</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/@MrPecners/videos</t>
+  </si>
+  <si>
+    <t>Andrew Gard</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@EquitableEquations</t>
   </si>
 </sst>
 </file>
@@ -540,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245F8200-F879-724D-A0E9-7D624933F044}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,17 +744,25 @@
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
